--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.020705984639</v>
+        <v>414.4156414211147</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.3968335569245</v>
+        <v>567.0217633201395</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.6108901437889</v>
+        <v>512.9060020489076</v>
       </c>
       <c r="AD2" t="n">
-        <v>297020.705984639</v>
+        <v>414415.6414211147</v>
       </c>
       <c r="AE2" t="n">
-        <v>406396.8335569245</v>
+        <v>567021.7633201395</v>
       </c>
       <c r="AF2" t="n">
         <v>6.494162145366641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>367610.8901437889</v>
+        <v>512906.0020489076</v>
       </c>
     </row>
     <row r="3">
@@ -4468,28 +4468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.0184953556996</v>
+        <v>377.624909521827</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.4512177209512</v>
+        <v>516.6830608429948</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.1913120297035</v>
+        <v>467.3715546853689</v>
       </c>
       <c r="AD3" t="n">
-        <v>270018.4953556996</v>
+        <v>377624.909521827</v>
       </c>
       <c r="AE3" t="n">
-        <v>369451.2177209512</v>
+        <v>516683.0608429948</v>
       </c>
       <c r="AF3" t="n">
         <v>7.038335710688078e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>334191.3120297035</v>
+        <v>467371.5546853689</v>
       </c>
     </row>
     <row r="4">
@@ -4574,28 +4574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.9343599757532</v>
+        <v>352.7864182903162</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.8124382288568</v>
+        <v>482.697941343146</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.5222686857306</v>
+        <v>436.6299272921709</v>
       </c>
       <c r="AD4" t="n">
-        <v>254934.3599757532</v>
+        <v>352786.4182903162</v>
       </c>
       <c r="AE4" t="n">
-        <v>348812.4382288568</v>
+        <v>482697.941343146</v>
       </c>
       <c r="AF4" t="n">
         <v>7.470649032656254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>315522.2686857306</v>
+        <v>436629.9272921709</v>
       </c>
     </row>
     <row r="5">
@@ -4680,28 +4680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.573851916381</v>
+        <v>339.391744812163</v>
       </c>
       <c r="AB5" t="n">
-        <v>330.5320016780169</v>
+        <v>464.3707581590489</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.9864913425432</v>
+        <v>420.0518647488009</v>
       </c>
       <c r="AD5" t="n">
-        <v>241573.851916381</v>
+        <v>339391.7448121631</v>
       </c>
       <c r="AE5" t="n">
-        <v>330532.0016780169</v>
+        <v>464370.7581590489</v>
       </c>
       <c r="AF5" t="n">
         <v>7.764462980041568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>298986.4913425432</v>
+        <v>420051.8647488009</v>
       </c>
     </row>
     <row r="6">
@@ -4786,28 +4786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.0125843390425</v>
+        <v>326.8977970425289</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.3451212146963</v>
+        <v>447.275987626561</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.4399026286983</v>
+        <v>404.5885951232726</v>
       </c>
       <c r="AD6" t="n">
-        <v>229012.5843390425</v>
+        <v>326897.7970425289</v>
       </c>
       <c r="AE6" t="n">
-        <v>313345.1212146963</v>
+        <v>447275.987626561</v>
       </c>
       <c r="AF6" t="n">
         <v>8.006264325048724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>283439.9026286983</v>
+        <v>404588.5951232726</v>
       </c>
     </row>
     <row r="7">
@@ -4892,28 +4892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>229.1563754962882</v>
+        <v>327.0415881997745</v>
       </c>
       <c r="AB7" t="n">
-        <v>313.541862619658</v>
+        <v>447.4727290315228</v>
       </c>
       <c r="AC7" t="n">
-        <v>283.6178673100988</v>
+        <v>404.7665598046731</v>
       </c>
       <c r="AD7" t="n">
-        <v>229156.3754962882</v>
+        <v>327041.5881997746</v>
       </c>
       <c r="AE7" t="n">
-        <v>313541.862619658</v>
+        <v>447472.7290315228</v>
       </c>
       <c r="AF7" t="n">
         <v>7.998610095034787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.63541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>283617.8673100988</v>
+        <v>404766.5598046731</v>
       </c>
     </row>
   </sheetData>
@@ -5189,28 +5189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.9692546616589</v>
+        <v>588.0844127217869</v>
       </c>
       <c r="AB2" t="n">
-        <v>585.5664148990674</v>
+        <v>804.6430379391713</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.6807781087247</v>
+        <v>727.8490357218527</v>
       </c>
       <c r="AD2" t="n">
-        <v>427969.2546616588</v>
+        <v>588084.4127217869</v>
       </c>
       <c r="AE2" t="n">
-        <v>585566.4148990674</v>
+        <v>804643.0379391713</v>
       </c>
       <c r="AF2" t="n">
         <v>4.164260220648229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>529680.7781087246</v>
+        <v>727849.0357218527</v>
       </c>
     </row>
     <row r="3">
@@ -5295,28 +5295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.1718205706279</v>
+        <v>520.2072429264549</v>
       </c>
       <c r="AB3" t="n">
-        <v>506.4854157328857</v>
+        <v>711.77049969581</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.1471585120838</v>
+        <v>643.8401221810116</v>
       </c>
       <c r="AD3" t="n">
-        <v>370171.8205706279</v>
+        <v>520207.2429264549</v>
       </c>
       <c r="AE3" t="n">
-        <v>506485.4157328857</v>
+        <v>711770.49969581</v>
       </c>
       <c r="AF3" t="n">
         <v>4.694701743881555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>458147.1585120838</v>
+        <v>643840.1221810116</v>
       </c>
     </row>
     <row r="4">
@@ -5401,28 +5401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.077278987841</v>
+        <v>470.1582224477505</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.3087362618447</v>
+        <v>643.2912218698964</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.9003235379265</v>
+        <v>581.8964105195332</v>
       </c>
       <c r="AD4" t="n">
-        <v>340077.278987841</v>
+        <v>470158.2224477505</v>
       </c>
       <c r="AE4" t="n">
-        <v>465308.7362618448</v>
+        <v>643291.2218698964</v>
       </c>
       <c r="AF4" t="n">
         <v>5.087223353452187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>420900.3235379265</v>
+        <v>581896.4105195332</v>
       </c>
     </row>
     <row r="5">
@@ -5507,28 +5507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.6278244582524</v>
+        <v>443.7419223070855</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.1194257068811</v>
+        <v>607.1472746125266</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.1648699903122</v>
+        <v>549.2019908600581</v>
       </c>
       <c r="AD5" t="n">
-        <v>313627.8244582524</v>
+        <v>443741.9223070855</v>
       </c>
       <c r="AE5" t="n">
-        <v>429119.4257068812</v>
+        <v>607147.2746125266</v>
       </c>
       <c r="AF5" t="n">
         <v>5.374219596799268e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>388164.8699903123</v>
+        <v>549201.9908600581</v>
       </c>
     </row>
     <row r="6">
@@ -5613,28 +5613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.9904626605171</v>
+        <v>429.0703950905694</v>
       </c>
       <c r="AB6" t="n">
-        <v>409.0919415403923</v>
+        <v>587.0730438127899</v>
       </c>
       <c r="AC6" t="n">
-        <v>370.0487808039226</v>
+        <v>531.0436164734886</v>
       </c>
       <c r="AD6" t="n">
-        <v>298990.4626605171</v>
+        <v>429070.3950905694</v>
       </c>
       <c r="AE6" t="n">
-        <v>409091.9415403923</v>
+        <v>587073.04381279</v>
       </c>
       <c r="AF6" t="n">
         <v>5.603233182565705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>370048.7808039226</v>
+        <v>531043.6164734885</v>
       </c>
     </row>
     <row r="7">
@@ -5719,28 +5719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>285.3857065278371</v>
+        <v>405.4883995099307</v>
       </c>
       <c r="AB7" t="n">
-        <v>390.477314000179</v>
+        <v>554.8071170951404</v>
       </c>
       <c r="AC7" t="n">
-        <v>353.2107071903533</v>
+        <v>501.8571045162588</v>
       </c>
       <c r="AD7" t="n">
-        <v>285385.7065278371</v>
+        <v>405488.3995099308</v>
       </c>
       <c r="AE7" t="n">
-        <v>390477.314000179</v>
+        <v>554807.1170951404</v>
       </c>
       <c r="AF7" t="n">
         <v>5.794632246424136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>353210.7071903533</v>
+        <v>501857.1045162588</v>
       </c>
     </row>
     <row r="8">
@@ -5825,28 +5825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>282.2588943830557</v>
+        <v>392.3170281094862</v>
       </c>
       <c r="AB8" t="n">
-        <v>386.199071678473</v>
+        <v>536.7854656651565</v>
       </c>
       <c r="AC8" t="n">
-        <v>349.3407743112801</v>
+        <v>485.555414205206</v>
       </c>
       <c r="AD8" t="n">
-        <v>282258.8943830557</v>
+        <v>392317.0281094862</v>
       </c>
       <c r="AE8" t="n">
-        <v>386199.071678473</v>
+        <v>536785.4656651565</v>
       </c>
       <c r="AF8" t="n">
         <v>5.960545552581631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.36979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>349340.7743112801</v>
+        <v>485555.414205206</v>
       </c>
     </row>
     <row r="9">
@@ -5931,28 +5931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>269.0588152946061</v>
+        <v>379.184268828741</v>
       </c>
       <c r="AB9" t="n">
-        <v>368.1381411232668</v>
+        <v>518.8166450407919</v>
       </c>
       <c r="AC9" t="n">
-        <v>333.0035536195877</v>
+        <v>469.3015126018325</v>
       </c>
       <c r="AD9" t="n">
-        <v>269058.8152946061</v>
+        <v>379184.268828741</v>
       </c>
       <c r="AE9" t="n">
-        <v>368138.1411232668</v>
+        <v>518816.6450407919</v>
       </c>
       <c r="AF9" t="n">
         <v>6.131320599666013e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>333003.5536195877</v>
+        <v>469301.5126018326</v>
       </c>
     </row>
     <row r="10">
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>268.9185994216874</v>
+        <v>379.0440529558223</v>
       </c>
       <c r="AB10" t="n">
-        <v>367.9462915800516</v>
+        <v>518.6247954975767</v>
       </c>
       <c r="AC10" t="n">
-        <v>332.8300139275144</v>
+        <v>469.1279729097593</v>
       </c>
       <c r="AD10" t="n">
-        <v>268918.5994216874</v>
+        <v>379044.0529558223</v>
       </c>
       <c r="AE10" t="n">
-        <v>367946.2915800516</v>
+        <v>518624.7954975767</v>
       </c>
       <c r="AF10" t="n">
         <v>6.141555843722613e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>332830.0139275144</v>
+        <v>469127.9729097593</v>
       </c>
     </row>
     <row r="11">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.5343524173333</v>
+        <v>376.5583207249829</v>
       </c>
       <c r="AB11" t="n">
-        <v>364.68405964314</v>
+        <v>515.2237069965759</v>
       </c>
       <c r="AC11" t="n">
-        <v>329.8791248280904</v>
+        <v>466.0514795218362</v>
       </c>
       <c r="AD11" t="n">
-        <v>266534.3524173332</v>
+        <v>376558.3207249829</v>
       </c>
       <c r="AE11" t="n">
-        <v>364684.05964314</v>
+        <v>515223.7069965758</v>
       </c>
       <c r="AF11" t="n">
         <v>6.267551698059366e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>329879.1248280904</v>
+        <v>466051.4795218362</v>
       </c>
     </row>
     <row r="12">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>254.0437549742716</v>
+        <v>364.1350430896289</v>
       </c>
       <c r="AB12" t="n">
-        <v>347.5938731751107</v>
+        <v>498.2256304595565</v>
       </c>
       <c r="AC12" t="n">
-        <v>314.4200017704468</v>
+        <v>450.6756755525598</v>
       </c>
       <c r="AD12" t="n">
-        <v>254043.7549742716</v>
+        <v>364135.0430896289</v>
       </c>
       <c r="AE12" t="n">
-        <v>347593.8731751107</v>
+        <v>498225.6304595565</v>
       </c>
       <c r="AF12" t="n">
         <v>6.3939057859381e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>314420.0017704468</v>
+        <v>450675.6755525598</v>
       </c>
     </row>
     <row r="13">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>254.0183115690068</v>
+        <v>364.1095996843641</v>
       </c>
       <c r="AB13" t="n">
-        <v>347.5590603855435</v>
+        <v>498.1908176699893</v>
       </c>
       <c r="AC13" t="n">
-        <v>314.3885114646559</v>
+        <v>450.6441852467688</v>
       </c>
       <c r="AD13" t="n">
-        <v>254018.3115690068</v>
+        <v>364109.599684364</v>
       </c>
       <c r="AE13" t="n">
-        <v>347559.0603855435</v>
+        <v>498190.8176699893</v>
       </c>
       <c r="AF13" t="n">
         <v>6.37839939119235e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>314388.5114646559</v>
+        <v>450644.1852467688</v>
       </c>
     </row>
     <row r="14">
@@ -6461,28 +6461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>254.1208141796074</v>
+        <v>364.2121022949646</v>
       </c>
       <c r="AB14" t="n">
-        <v>347.6993089794632</v>
+        <v>498.3310662639091</v>
       </c>
       <c r="AC14" t="n">
-        <v>314.5153749296121</v>
+        <v>450.771048711725</v>
       </c>
       <c r="AD14" t="n">
-        <v>254120.8141796074</v>
+        <v>364212.1022949646</v>
       </c>
       <c r="AE14" t="n">
-        <v>347699.3089794632</v>
+        <v>498331.0662639091</v>
       </c>
       <c r="AF14" t="n">
         <v>6.37686410458386e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.91145833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>314515.3749296121</v>
+        <v>450771.048711725</v>
       </c>
     </row>
   </sheetData>
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.3231794997918</v>
+        <v>436.6667346393638</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.2836676320919</v>
+        <v>597.4666907102994</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.935893037046</v>
+        <v>540.4453082986746</v>
       </c>
       <c r="AD2" t="n">
-        <v>301323.1794997918</v>
+        <v>436666.7346393638</v>
       </c>
       <c r="AE2" t="n">
-        <v>412283.6676320918</v>
+        <v>597466.6907102994</v>
       </c>
       <c r="AF2" t="n">
         <v>1.3612800743773e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>372935.893037046</v>
+        <v>540445.3082986746</v>
       </c>
     </row>
   </sheetData>
@@ -7055,28 +7055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.035349913144</v>
+        <v>319.841205541245</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.5890965580141</v>
+        <v>437.6208478196588</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.3784880445071</v>
+        <v>395.8549283084674</v>
       </c>
       <c r="AD2" t="n">
-        <v>216035.349913144</v>
+        <v>319841.2055412449</v>
       </c>
       <c r="AE2" t="n">
-        <v>295589.0965580142</v>
+        <v>437620.8478196588</v>
       </c>
       <c r="AF2" t="n">
         <v>1.085728024226856e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>267378.4880445071</v>
+        <v>395854.9283084674</v>
       </c>
     </row>
   </sheetData>
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.9815690324418</v>
+        <v>428.522282402149</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.8162611198733</v>
+        <v>586.323091851468</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.5130951463443</v>
+        <v>530.3652388747907</v>
       </c>
       <c r="AD2" t="n">
-        <v>300981.5690324418</v>
+        <v>428522.282402149</v>
       </c>
       <c r="AE2" t="n">
-        <v>411816.2611198733</v>
+        <v>586323.091851468</v>
       </c>
       <c r="AF2" t="n">
         <v>6.206747357347052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>372513.0951463443</v>
+        <v>530365.2388747907</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.7775357400164</v>
+        <v>390.5047968952246</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.2262584950446</v>
+        <v>534.305890967805</v>
       </c>
       <c r="AC3" t="n">
-        <v>337.6060682106204</v>
+        <v>483.3124866368648</v>
       </c>
       <c r="AD3" t="n">
-        <v>272777.5357400164</v>
+        <v>390504.7968952245</v>
       </c>
       <c r="AE3" t="n">
-        <v>373226.2584950446</v>
+        <v>534305.8909678051</v>
       </c>
       <c r="AF3" t="n">
         <v>6.786469261332338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>337606.0682106204</v>
+        <v>483312.4866368648</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.8799065074199</v>
+        <v>365.7263956404278</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.8426649418229</v>
+        <v>500.4029892250791</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.1678562176713</v>
+        <v>452.6452302534432</v>
       </c>
       <c r="AD4" t="n">
-        <v>257879.9065074199</v>
+        <v>365726.3956404278</v>
       </c>
       <c r="AE4" t="n">
-        <v>352842.6649418229</v>
+        <v>500402.9892250791</v>
       </c>
       <c r="AF4" t="n">
         <v>7.184828624713053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>319167.8562176712</v>
+        <v>452645.2302534432</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.4264649405384</v>
+        <v>352.3402738812505</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.4350726660718</v>
+        <v>482.08750688016</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.517058713494</v>
+        <v>436.0777518375822</v>
       </c>
       <c r="AD5" t="n">
-        <v>244426.4649405384</v>
+        <v>352340.2738812505</v>
       </c>
       <c r="AE5" t="n">
-        <v>334435.0726660718</v>
+        <v>482087.5068801601</v>
       </c>
       <c r="AF5" t="n">
         <v>7.472503061879248e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>302517.0587134939</v>
+        <v>436077.7518375823</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>231.4952170474334</v>
+        <v>339.3748605693645</v>
       </c>
       <c r="AB6" t="n">
-        <v>316.7419688123402</v>
+        <v>464.3476563931715</v>
       </c>
       <c r="AC6" t="n">
-        <v>286.5125598591296</v>
+        <v>420.0309677830355</v>
       </c>
       <c r="AD6" t="n">
-        <v>231495.2170474334</v>
+        <v>339374.8605693645</v>
       </c>
       <c r="AE6" t="n">
-        <v>316741.9688123402</v>
+        <v>464347.6563931715</v>
       </c>
       <c r="AF6" t="n">
         <v>7.712251457849512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>286512.5598591296</v>
+        <v>420030.9677830355</v>
       </c>
     </row>
     <row r="7">
@@ -7882,19 +7882,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>231.5751408929275</v>
+        <v>339.4547844148586</v>
       </c>
       <c r="AB7" t="n">
-        <v>316.8513241437365</v>
+        <v>464.4570117245678</v>
       </c>
       <c r="AC7" t="n">
-        <v>286.6114784711786</v>
+        <v>420.1298863950844</v>
       </c>
       <c r="AD7" t="n">
-        <v>231575.1408929275</v>
+        <v>339454.7844148586</v>
       </c>
       <c r="AE7" t="n">
-        <v>316851.3241437364</v>
+        <v>464457.0117245679</v>
       </c>
       <c r="AF7" t="n">
         <v>7.690504499575651e-06</v>
@@ -7903,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>286611.4784711786</v>
+        <v>420129.8863950844</v>
       </c>
     </row>
   </sheetData>
@@ -8179,28 +8179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.0401283671662</v>
+        <v>315.5896078583909</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.0686111171607</v>
+        <v>431.803624302726</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.3350454246774</v>
+        <v>390.5928924394661</v>
       </c>
       <c r="AD2" t="n">
-        <v>220040.1283671662</v>
+        <v>315589.6078583909</v>
       </c>
       <c r="AE2" t="n">
-        <v>301068.6111171608</v>
+        <v>431803.624302726</v>
       </c>
       <c r="AF2" t="n">
         <v>9.790527155374688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>272335.0454246774</v>
+        <v>390592.8924394661</v>
       </c>
     </row>
     <row r="3">
@@ -8285,28 +8285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.0838914802997</v>
+        <v>315.6333709715244</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.1284897392422</v>
+        <v>431.8635029248075</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.3892093151076</v>
+        <v>390.6470563298964</v>
       </c>
       <c r="AD3" t="n">
-        <v>220083.8914802997</v>
+        <v>315633.3709715244</v>
       </c>
       <c r="AE3" t="n">
-        <v>301128.4897392422</v>
+        <v>431863.5029248075</v>
       </c>
       <c r="AF3" t="n">
         <v>9.788009110916171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>272389.2093151076</v>
+        <v>390647.0563298964</v>
       </c>
     </row>
   </sheetData>
@@ -8582,28 +8582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.0978126139036</v>
+        <v>529.2454049941655</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.0665959503588</v>
+        <v>724.1369117724208</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.4321699509075</v>
+        <v>655.0263012453991</v>
       </c>
       <c r="AD2" t="n">
-        <v>380097.8126139036</v>
+        <v>529245.4049941655</v>
       </c>
       <c r="AE2" t="n">
-        <v>520066.5959503587</v>
+        <v>724136.9117724209</v>
       </c>
       <c r="AF2" t="n">
         <v>4.725833321770815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>470432.1699509075</v>
+        <v>655026.3012453991</v>
       </c>
     </row>
     <row r="3">
@@ -8688,28 +8688,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.6210555804844</v>
+        <v>475.784544034849</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.579778918084</v>
+        <v>650.9894032811549</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.622691245921</v>
+        <v>588.8598883013667</v>
       </c>
       <c r="AD3" t="n">
-        <v>336621.0555804844</v>
+        <v>475784.544034849</v>
       </c>
       <c r="AE3" t="n">
-        <v>460579.778918084</v>
+        <v>650989.4032811548</v>
       </c>
       <c r="AF3" t="n">
         <v>5.260721486831246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>416622.691245921</v>
+        <v>588859.8883013667</v>
       </c>
     </row>
     <row r="4">
@@ -8794,28 +8794,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.2478810579516</v>
+        <v>437.5629162316851</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.758349800238</v>
+        <v>598.6928859016547</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.5063248368641</v>
+        <v>541.5544771419428</v>
       </c>
       <c r="AD4" t="n">
-        <v>308247.8810579517</v>
+        <v>437562.916231685</v>
       </c>
       <c r="AE4" t="n">
-        <v>421758.349800238</v>
+        <v>598692.8859016547</v>
       </c>
       <c r="AF4" t="n">
         <v>5.668896103355349e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>381506.3248368641</v>
+        <v>541554.4771419428</v>
       </c>
     </row>
     <row r="5">
@@ -8900,28 +8900,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>292.8829656320353</v>
+        <v>412.1807424909477</v>
       </c>
       <c r="AB5" t="n">
-        <v>400.7353946622709</v>
+        <v>563.9638760071027</v>
       </c>
       <c r="AC5" t="n">
-        <v>362.4897710313619</v>
+        <v>510.1399552092554</v>
       </c>
       <c r="AD5" t="n">
-        <v>292882.9656320353</v>
+        <v>412180.7424909477</v>
       </c>
       <c r="AE5" t="n">
-        <v>400735.394662271</v>
+        <v>563963.8760071028</v>
       </c>
       <c r="AF5" t="n">
         <v>5.982609587405466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.25520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>362489.7710313619</v>
+        <v>510139.9552092554</v>
       </c>
     </row>
     <row r="6">
@@ -9006,28 +9006,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>279.3493287489743</v>
+        <v>398.612940189106</v>
       </c>
       <c r="AB6" t="n">
-        <v>382.2180756169462</v>
+        <v>545.3998103285302</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.7397189265025</v>
+        <v>493.347617904216</v>
       </c>
       <c r="AD6" t="n">
-        <v>279349.3287489743</v>
+        <v>398612.940189106</v>
       </c>
       <c r="AE6" t="n">
-        <v>382218.0756169462</v>
+        <v>545399.8103285301</v>
       </c>
       <c r="AF6" t="n">
         <v>6.182318256400776e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>345739.7189265024</v>
+        <v>493347.617904216</v>
       </c>
     </row>
     <row r="7">
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.9672818047937</v>
+        <v>375.416605383075</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.9081686136736</v>
+        <v>513.6615616968513</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.1772837495063</v>
+        <v>464.6384231770328</v>
       </c>
       <c r="AD7" t="n">
-        <v>265967.2818047937</v>
+        <v>375416.605383075</v>
       </c>
       <c r="AE7" t="n">
-        <v>363908.1686136737</v>
+        <v>513661.5616968513</v>
       </c>
       <c r="AF7" t="n">
         <v>6.401570607976909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH7" t="n">
-        <v>329177.2837495063</v>
+        <v>464638.4231770328</v>
       </c>
     </row>
     <row r="8">
@@ -9218,28 +9218,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>263.2576745874676</v>
+        <v>372.6055129392636</v>
       </c>
       <c r="AB8" t="n">
-        <v>360.2007644794943</v>
+        <v>509.8153009985827</v>
       </c>
       <c r="AC8" t="n">
-        <v>325.8237090625187</v>
+        <v>461.1592442015461</v>
       </c>
       <c r="AD8" t="n">
-        <v>263257.6745874676</v>
+        <v>372605.5129392636</v>
       </c>
       <c r="AE8" t="n">
-        <v>360200.7644794943</v>
+        <v>509815.3009985827</v>
       </c>
       <c r="AF8" t="n">
         <v>6.565342396161031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>325823.7090625187</v>
+        <v>461159.2442015461</v>
       </c>
     </row>
     <row r="9">
@@ -9324,28 +9324,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.8259341857497</v>
+        <v>361.2410923452533</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.5593529289088</v>
+        <v>494.2659993790056</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.6750918775656</v>
+        <v>447.0939461049596</v>
       </c>
       <c r="AD9" t="n">
-        <v>251825.9341857497</v>
+        <v>361241.0923452533</v>
       </c>
       <c r="AE9" t="n">
-        <v>344559.3529289088</v>
+        <v>494265.9993790056</v>
       </c>
       <c r="AF9" t="n">
         <v>6.660177314913883e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>311675.0918775656</v>
+        <v>447093.9461049596</v>
       </c>
     </row>
     <row r="10">
@@ -9430,28 +9430,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.591704563062</v>
+        <v>358.9053774960803</v>
       </c>
       <c r="AB10" t="n">
-        <v>341.5023813918945</v>
+        <v>491.0701712779006</v>
       </c>
       <c r="AC10" t="n">
-        <v>308.9098734135566</v>
+        <v>444.2031233524511</v>
       </c>
       <c r="AD10" t="n">
-        <v>249591.704563062</v>
+        <v>358905.3774960804</v>
       </c>
       <c r="AE10" t="n">
-        <v>341502.3813918945</v>
+        <v>491070.1712779006</v>
       </c>
       <c r="AF10" t="n">
         <v>6.786463679131504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>308909.8734135565</v>
+        <v>444203.1233524511</v>
       </c>
     </row>
     <row r="11">
@@ -9536,28 +9536,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>249.7137489595067</v>
+        <v>359.1289071190103</v>
       </c>
       <c r="AB11" t="n">
-        <v>341.6693679193289</v>
+        <v>491.3760143694242</v>
       </c>
       <c r="AC11" t="n">
-        <v>309.0609229811796</v>
+        <v>444.4797772085732</v>
       </c>
       <c r="AD11" t="n">
-        <v>249713.7489595067</v>
+        <v>359128.9071190103</v>
       </c>
       <c r="AE11" t="n">
-        <v>341669.3679193289</v>
+        <v>491376.0143694243</v>
       </c>
       <c r="AF11" t="n">
         <v>6.778293779036242e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>309060.9229811796</v>
+        <v>444479.7772085732</v>
       </c>
     </row>
     <row r="12">
@@ -9642,28 +9642,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>249.746439717217</v>
+        <v>359.1615978767206</v>
       </c>
       <c r="AB12" t="n">
-        <v>341.7140968562425</v>
+        <v>491.420743306338</v>
       </c>
       <c r="AC12" t="n">
-        <v>309.1013830511317</v>
+        <v>444.5202372785254</v>
       </c>
       <c r="AD12" t="n">
-        <v>249746.439717217</v>
+        <v>359161.5978767206</v>
       </c>
       <c r="AE12" t="n">
-        <v>341714.0968562425</v>
+        <v>491420.743306338</v>
       </c>
       <c r="AF12" t="n">
         <v>6.777813196677696e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>309101.3830511317</v>
+        <v>444520.2372785254</v>
       </c>
     </row>
   </sheetData>
@@ -9939,28 +9939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.4744266037596</v>
+        <v>357.8589820284668</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.0784047478101</v>
+        <v>489.6384468354017</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.2400447158558</v>
+        <v>442.9080406813065</v>
       </c>
       <c r="AD2" t="n">
-        <v>251474.4266037596</v>
+        <v>357858.9820284668</v>
       </c>
       <c r="AE2" t="n">
-        <v>344078.4047478101</v>
+        <v>489638.4468354018</v>
       </c>
       <c r="AF2" t="n">
         <v>8.009334536794763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>311240.0447158558</v>
+        <v>442908.0406813065</v>
       </c>
     </row>
     <row r="3">
@@ -10045,28 +10045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.4198171768856</v>
+        <v>333.1579888702653</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.4800239674777</v>
+        <v>455.8414582654417</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.6075444871828</v>
+        <v>412.3365892660919</v>
       </c>
       <c r="AD3" t="n">
-        <v>236419.8171768856</v>
+        <v>333157.9888702653</v>
       </c>
       <c r="AE3" t="n">
-        <v>323480.0239674777</v>
+        <v>455841.4582654417</v>
       </c>
       <c r="AF3" t="n">
         <v>8.561631941928075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>292607.5444871828</v>
+        <v>412336.5892660919</v>
       </c>
     </row>
     <row r="4">
@@ -10151,28 +10151,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.3584989759761</v>
+        <v>322.1639904770601</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.3454404140826</v>
+        <v>440.7989846428802</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.9173843465975</v>
+        <v>398.7297482138235</v>
       </c>
       <c r="AD4" t="n">
-        <v>225358.4989759761</v>
+        <v>322163.9904770601</v>
       </c>
       <c r="AE4" t="n">
-        <v>308345.4404140826</v>
+        <v>440798.9846428802</v>
       </c>
       <c r="AF4" t="n">
         <v>8.694249265118891e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>278917.3843465975</v>
+        <v>398729.7482138235</v>
       </c>
     </row>
   </sheetData>
@@ -10448,28 +10448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.070228932587</v>
+        <v>458.1993945225151</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.6166488963559</v>
+        <v>626.9286259163365</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.5149897736346</v>
+        <v>567.0954377587334</v>
       </c>
       <c r="AD2" t="n">
-        <v>330070.228932587</v>
+        <v>458199.3945225151</v>
       </c>
       <c r="AE2" t="n">
-        <v>451616.6488963559</v>
+        <v>626928.6259163365</v>
       </c>
       <c r="AF2" t="n">
         <v>5.635398990825343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>408514.9897736346</v>
+        <v>567095.4377587334</v>
       </c>
     </row>
     <row r="3">
@@ -10554,28 +10554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.4283930732919</v>
+        <v>418.5565476333627</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.3769401992997</v>
+        <v>572.6875338836261</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.4518427487161</v>
+        <v>518.0310394217742</v>
       </c>
       <c r="AD3" t="n">
-        <v>290428.3930732919</v>
+        <v>418556.5476333627</v>
       </c>
       <c r="AE3" t="n">
-        <v>397376.9401992997</v>
+        <v>572687.5338836261</v>
       </c>
       <c r="AF3" t="n">
         <v>6.197366633755331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>359451.8427487161</v>
+        <v>518031.0394217741</v>
       </c>
     </row>
     <row r="4">
@@ -10660,28 +10660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.3374064142712</v>
+        <v>382.7440357891788</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.3605423681973</v>
+        <v>523.6872752418975</v>
       </c>
       <c r="AC4" t="n">
-        <v>339.5366590264057</v>
+        <v>473.707296692517</v>
       </c>
       <c r="AD4" t="n">
-        <v>274337.4064142712</v>
+        <v>382744.0357891789</v>
       </c>
       <c r="AE4" t="n">
-        <v>375360.5423681973</v>
+        <v>523687.2752418975</v>
       </c>
       <c r="AF4" t="n">
         <v>6.618173017771938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>339536.6590264057</v>
+        <v>473707.2966925171</v>
       </c>
     </row>
     <row r="5">
@@ -10766,28 +10766,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>260.6309854704247</v>
+        <v>369.1049346530368</v>
       </c>
       <c r="AB5" t="n">
-        <v>356.606812548211</v>
+        <v>505.0256553527527</v>
       </c>
       <c r="AC5" t="n">
-        <v>322.5727588594138</v>
+        <v>456.8267156138443</v>
       </c>
       <c r="AD5" t="n">
-        <v>260630.9854704247</v>
+        <v>369104.9346530368</v>
       </c>
       <c r="AE5" t="n">
-        <v>356606.812548211</v>
+        <v>505025.6553527527</v>
       </c>
       <c r="AF5" t="n">
         <v>6.8824943419681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>322572.7588594138</v>
+        <v>456826.7156138443</v>
       </c>
     </row>
     <row r="6">
@@ -10872,28 +10872,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.5801841797175</v>
+        <v>355.0199679435519</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.3818863445022</v>
+        <v>485.7539825159595</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.1826326303348</v>
+        <v>439.3943041846319</v>
       </c>
       <c r="AD6" t="n">
-        <v>246580.1841797176</v>
+        <v>355019.967943552</v>
       </c>
       <c r="AE6" t="n">
-        <v>337381.8863445022</v>
+        <v>485753.9825159595</v>
       </c>
       <c r="AF6" t="n">
         <v>7.194439077161676e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>305182.6326303348</v>
+        <v>439394.3041846319</v>
       </c>
     </row>
     <row r="7">
@@ -10978,28 +10978,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>244.7756555658837</v>
+        <v>343.3210168332843</v>
       </c>
       <c r="AB7" t="n">
-        <v>334.9128506848722</v>
+        <v>469.7469614855943</v>
       </c>
       <c r="AC7" t="n">
-        <v>302.9492382687458</v>
+        <v>424.9149707754096</v>
       </c>
       <c r="AD7" t="n">
-        <v>244775.6555658837</v>
+        <v>343321.0168332843</v>
       </c>
       <c r="AE7" t="n">
-        <v>334912.8506848722</v>
+        <v>469746.9614855943</v>
       </c>
       <c r="AF7" t="n">
         <v>7.323409654312562e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>302949.2382687458</v>
+        <v>424914.9707754096</v>
       </c>
     </row>
     <row r="8">
@@ -11084,28 +11084,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>244.0178111860417</v>
+        <v>342.5631724534423</v>
       </c>
       <c r="AB8" t="n">
-        <v>333.8759345706384</v>
+        <v>468.7100453713601</v>
       </c>
       <c r="AC8" t="n">
-        <v>302.0112839731333</v>
+        <v>423.977016479797</v>
       </c>
       <c r="AD8" t="n">
-        <v>244017.8111860417</v>
+        <v>342563.1724534423</v>
       </c>
       <c r="AE8" t="n">
-        <v>333875.9345706385</v>
+        <v>468710.0453713601</v>
       </c>
       <c r="AF8" t="n">
         <v>7.382995883861955e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>302011.2839731333</v>
+        <v>423977.016479797</v>
       </c>
     </row>
     <row r="9">
@@ -11190,28 +11190,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>244.0810579053556</v>
+        <v>342.6264191727561</v>
       </c>
       <c r="AB9" t="n">
-        <v>333.962471522252</v>
+        <v>468.7965823229736</v>
       </c>
       <c r="AC9" t="n">
-        <v>302.0895619595402</v>
+        <v>424.0552944662038</v>
       </c>
       <c r="AD9" t="n">
-        <v>244081.0579053556</v>
+        <v>342626.4191727561</v>
       </c>
       <c r="AE9" t="n">
-        <v>333962.471522252</v>
+        <v>468796.5823229736</v>
       </c>
       <c r="AF9" t="n">
         <v>7.381116012375216e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>302089.5619595402</v>
+        <v>424055.2944662038</v>
       </c>
     </row>
   </sheetData>
@@ -11487,28 +11487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.8552520657116</v>
+        <v>325.62990055744</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.9203875560008</v>
+        <v>445.5411957200174</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.8192137261981</v>
+        <v>403.0193693214937</v>
       </c>
       <c r="AD2" t="n">
-        <v>222855.2520657116</v>
+        <v>325629.90055744</v>
       </c>
       <c r="AE2" t="n">
-        <v>304920.3875560008</v>
+        <v>445541.1957200174</v>
       </c>
       <c r="AF2" t="n">
         <v>1.171730498733282e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>275819.2137261981</v>
+        <v>403019.3693214937</v>
       </c>
     </row>
   </sheetData>
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.2253322839686</v>
+        <v>312.0510335687602</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.2172829360927</v>
+        <v>426.9619908487734</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.8512825998362</v>
+        <v>386.2133376870835</v>
       </c>
       <c r="AD2" t="n">
-        <v>217225.3322839686</v>
+        <v>312051.0335687602</v>
       </c>
       <c r="AE2" t="n">
-        <v>297217.2829360927</v>
+        <v>426961.9908487735</v>
       </c>
       <c r="AF2" t="n">
         <v>1.049567789250545e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>268851.2825998362</v>
+        <v>386213.3376870835</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.4311771822638</v>
+        <v>544.9267647532613</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.0463818130916</v>
+        <v>745.5928400075826</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.4096744962154</v>
+        <v>674.4345058033814</v>
       </c>
       <c r="AD2" t="n">
-        <v>395431.1771822638</v>
+        <v>544926.7647532613</v>
       </c>
       <c r="AE2" t="n">
-        <v>541046.3818130916</v>
+        <v>745592.8400075826</v>
       </c>
       <c r="AF2" t="n">
         <v>4.538828021101414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>489409.6744962154</v>
+        <v>674434.5058033814</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.1842839228807</v>
+        <v>479.7421653908885</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.4551451346906</v>
+        <v>656.4043954184199</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.0327593534341</v>
+        <v>593.7580811890402</v>
       </c>
       <c r="AD3" t="n">
-        <v>340184.2839228807</v>
+        <v>479742.1653908885</v>
       </c>
       <c r="AE3" t="n">
-        <v>465455.1451346906</v>
+        <v>656404.3954184199</v>
       </c>
       <c r="AF3" t="n">
         <v>5.09150042308653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>421032.7593534341</v>
+        <v>593758.0811890402</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.0595628373577</v>
+        <v>441.6767343513957</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.6561021392172</v>
+        <v>604.3215933418894</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.6005022157731</v>
+        <v>546.6459886440221</v>
       </c>
       <c r="AD4" t="n">
-        <v>322059.5628373577</v>
+        <v>441676.7343513957</v>
       </c>
       <c r="AE4" t="n">
-        <v>440656.1021392172</v>
+        <v>604321.5933418894</v>
       </c>
       <c r="AF4" t="n">
         <v>5.471314704485041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>398600.5022157731</v>
+        <v>546645.988644022</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.7874107261864</v>
+        <v>426.3402662834998</v>
       </c>
       <c r="AB5" t="n">
-        <v>406.0776286920491</v>
+        <v>583.337561134175</v>
       </c>
       <c r="AC5" t="n">
-        <v>367.3221497432105</v>
+        <v>527.6646430189377</v>
       </c>
       <c r="AD5" t="n">
-        <v>296787.4107261864</v>
+        <v>426340.2662834998</v>
       </c>
       <c r="AE5" t="n">
-        <v>406077.6286920491</v>
+        <v>583337.5611341749</v>
       </c>
       <c r="AF5" t="n">
         <v>5.735521895798692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>367322.1497432105</v>
+        <v>527664.6430189377</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>282.5466933942199</v>
+        <v>402.1628538784008</v>
       </c>
       <c r="AB6" t="n">
-        <v>386.592850982344</v>
+        <v>550.2569588493623</v>
       </c>
       <c r="AC6" t="n">
-        <v>349.6969718710624</v>
+        <v>497.7412069872706</v>
       </c>
       <c r="AD6" t="n">
-        <v>282546.6933942199</v>
+        <v>402162.8538784008</v>
       </c>
       <c r="AE6" t="n">
-        <v>386592.850982344</v>
+        <v>550256.9588493622</v>
       </c>
       <c r="AF6" t="n">
         <v>5.978259950674187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>349696.9718710624</v>
+        <v>497741.2069872706</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>279.2046459411638</v>
+        <v>388.8167915445076</v>
       </c>
       <c r="AB7" t="n">
-        <v>382.0201142163449</v>
+        <v>531.9962875774138</v>
       </c>
       <c r="AC7" t="n">
-        <v>345.5606506841339</v>
+        <v>481.2233085525039</v>
       </c>
       <c r="AD7" t="n">
-        <v>279204.6459411638</v>
+        <v>388816.7915445076</v>
       </c>
       <c r="AE7" t="n">
-        <v>382020.1142163449</v>
+        <v>531996.2875774138</v>
       </c>
       <c r="AF7" t="n">
         <v>6.184163702837166e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>345560.6506841339</v>
+        <v>481223.3085525039</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>265.2357617835268</v>
+        <v>374.8137419680899</v>
       </c>
       <c r="AB8" t="n">
-        <v>362.9072706481907</v>
+        <v>512.8366973760118</v>
       </c>
       <c r="AC8" t="n">
-        <v>328.2719100810799</v>
+        <v>463.8922827492698</v>
       </c>
       <c r="AD8" t="n">
-        <v>265235.7617835268</v>
+        <v>374813.7419680898</v>
       </c>
       <c r="AE8" t="n">
-        <v>362907.2706481906</v>
+        <v>512836.6973760118</v>
       </c>
       <c r="AF8" t="n">
         <v>6.396118804731486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>328271.9100810799</v>
+        <v>463892.2827492699</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.747150055538</v>
+        <v>374.325130240101</v>
       </c>
       <c r="AB9" t="n">
-        <v>362.2387305259283</v>
+        <v>512.1681572537495</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.6671744897843</v>
+        <v>463.2875471579744</v>
       </c>
       <c r="AD9" t="n">
-        <v>264747.150055538</v>
+        <v>374325.130240101</v>
       </c>
       <c r="AE9" t="n">
-        <v>362238.7305259283</v>
+        <v>512168.1572537495</v>
       </c>
       <c r="AF9" t="n">
         <v>6.442898369176384e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>327667.1744897843</v>
+        <v>463287.5471579743</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>252.4325373391104</v>
+        <v>362.0778373313809</v>
       </c>
       <c r="AB10" t="n">
-        <v>345.3893341247788</v>
+        <v>495.4108707836089</v>
       </c>
       <c r="AC10" t="n">
-        <v>312.425860832988</v>
+        <v>448.1295525895447</v>
       </c>
       <c r="AD10" t="n">
-        <v>252432.5373391104</v>
+        <v>362077.8373313809</v>
       </c>
       <c r="AE10" t="n">
-        <v>345389.3341247788</v>
+        <v>495410.8707836089</v>
       </c>
       <c r="AF10" t="n">
         <v>6.567082589750018e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>312425.8608329879</v>
+        <v>448129.5525895447</v>
       </c>
     </row>
     <row r="11">
@@ -13035,28 +13035,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.2921813204921</v>
+        <v>360.9374813127627</v>
       </c>
       <c r="AB11" t="n">
-        <v>343.8290487111492</v>
+        <v>493.8505853699785</v>
       </c>
       <c r="AC11" t="n">
-        <v>311.0144868693603</v>
+        <v>446.7181786259168</v>
       </c>
       <c r="AD11" t="n">
-        <v>251292.1813204921</v>
+        <v>360937.4813127627</v>
       </c>
       <c r="AE11" t="n">
-        <v>343829.0487111492</v>
+        <v>493850.5853699785</v>
       </c>
       <c r="AF11" t="n">
         <v>6.618229650087971e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>311014.4868693603</v>
+        <v>446718.1786259168</v>
       </c>
     </row>
     <row r="12">
@@ -13141,28 +13141,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>251.2235650666477</v>
+        <v>360.8688650589182</v>
       </c>
       <c r="AB12" t="n">
-        <v>343.7351649255038</v>
+        <v>493.756701584333</v>
       </c>
       <c r="AC12" t="n">
-        <v>310.9295632204501</v>
+        <v>446.6332549770066</v>
       </c>
       <c r="AD12" t="n">
-        <v>251223.5650666477</v>
+        <v>360868.8650589183</v>
       </c>
       <c r="AE12" t="n">
-        <v>343735.1649255038</v>
+        <v>493756.701584333</v>
       </c>
       <c r="AF12" t="n">
         <v>6.615914351060328e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH12" t="n">
-        <v>310929.5632204501</v>
+        <v>446633.2549770066</v>
       </c>
     </row>
   </sheetData>
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.5464628878152</v>
+        <v>331.3101379907671</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.0755973981862</v>
+        <v>453.3131471706848</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.1006631904658</v>
+        <v>410.0495766337119</v>
       </c>
       <c r="AD2" t="n">
-        <v>229546.4628878152</v>
+        <v>331310.1379907671</v>
       </c>
       <c r="AE2" t="n">
-        <v>314075.5973981862</v>
+        <v>453313.1471706848</v>
       </c>
       <c r="AF2" t="n">
         <v>1.274289342582822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>284100.6631904658</v>
+        <v>410049.5766337119</v>
       </c>
     </row>
   </sheetData>
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.3606766468255</v>
+        <v>372.0915725262157</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.0781846750108</v>
+        <v>509.1121050519997</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.4265123130598</v>
+        <v>460.5231602891632</v>
       </c>
       <c r="AD2" t="n">
-        <v>265360.6766468256</v>
+        <v>372091.5725262156</v>
       </c>
       <c r="AE2" t="n">
-        <v>363078.1846750109</v>
+        <v>509112.1050519997</v>
       </c>
       <c r="AF2" t="n">
         <v>7.559338844196666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>328426.5123130598</v>
+        <v>460523.1602891632</v>
       </c>
     </row>
     <row r="3">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.7852687017975</v>
+        <v>346.5493189701141</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.0847832171024</v>
+        <v>474.1640668918434</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.772831976845</v>
+        <v>428.9105138411327</v>
       </c>
       <c r="AD3" t="n">
-        <v>239785.2687017975</v>
+        <v>346549.3189701141</v>
       </c>
       <c r="AE3" t="n">
-        <v>328084.7832171024</v>
+        <v>474164.0668918435</v>
       </c>
       <c r="AF3" t="n">
         <v>8.14218280813453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>296772.831976845</v>
+        <v>428910.5138411327</v>
       </c>
     </row>
     <row r="4">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.7241389209016</v>
+        <v>323.8134259091721</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.213969234511</v>
+        <v>443.0558149690515</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.6075833989014</v>
+        <v>400.7711898211462</v>
       </c>
       <c r="AD4" t="n">
-        <v>226724.1389209016</v>
+        <v>323813.425909172</v>
       </c>
       <c r="AE4" t="n">
-        <v>310213.969234511</v>
+        <v>443055.8149690515</v>
       </c>
       <c r="AF4" t="n">
         <v>8.469931986486695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>280607.5833989014</v>
+        <v>400771.1898211462</v>
       </c>
     </row>
     <row r="5">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>226.4481165319084</v>
+        <v>323.5374035201789</v>
       </c>
       <c r="AB5" t="n">
-        <v>309.8363032246423</v>
+        <v>442.6781489591826</v>
       </c>
       <c r="AC5" t="n">
-        <v>280.2659613029569</v>
+        <v>400.4295677252016</v>
       </c>
       <c r="AD5" t="n">
-        <v>226448.1165319084</v>
+        <v>323537.4035201789</v>
       </c>
       <c r="AE5" t="n">
-        <v>309836.3032246423</v>
+        <v>442678.1489591826</v>
       </c>
       <c r="AF5" t="n">
         <v>8.505390419094597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.71354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>280265.9613029569</v>
+        <v>400429.5677252016</v>
       </c>
     </row>
   </sheetData>
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.6341285951319</v>
+        <v>347.874183533896</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.1414984215603</v>
+        <v>475.9768050369092</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.1104501512623</v>
+        <v>430.5502468018274</v>
       </c>
       <c r="AD2" t="n">
-        <v>237634.1285951319</v>
+        <v>347874.183533896</v>
       </c>
       <c r="AE2" t="n">
-        <v>325141.4984215603</v>
+        <v>475976.8050369092</v>
       </c>
       <c r="AF2" t="n">
         <v>1.329373282552161e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294110.4501512623</v>
+        <v>430550.2468018274</v>
       </c>
     </row>
   </sheetData>
@@ -14647,28 +14647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.6065112944809</v>
+        <v>473.0685756052103</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.5058317194166</v>
+        <v>647.2732954556527</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.5059769027058</v>
+        <v>585.4984405911403</v>
       </c>
       <c r="AD2" t="n">
-        <v>344606.5112944809</v>
+        <v>473068.5756052103</v>
       </c>
       <c r="AE2" t="n">
-        <v>471505.8317194165</v>
+        <v>647273.2954556528</v>
       </c>
       <c r="AF2" t="n">
         <v>5.395066505168356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>426505.9769027058</v>
+        <v>585498.4405911403</v>
       </c>
     </row>
     <row r="3">
@@ -14753,28 +14753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.651929514868</v>
+        <v>422.1955808145356</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.4699661399189</v>
+        <v>577.6666196249203</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.818095687284</v>
+        <v>522.5349282081098</v>
       </c>
       <c r="AD3" t="n">
-        <v>303651.929514868</v>
+        <v>422195.5808145356</v>
       </c>
       <c r="AE3" t="n">
-        <v>415469.9661399189</v>
+        <v>577666.6196249203</v>
       </c>
       <c r="AF3" t="n">
         <v>5.979498912139431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>375818.095687284</v>
+        <v>522534.9282081099</v>
       </c>
     </row>
     <row r="4">
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.9869470770809</v>
+        <v>396.6805162032483</v>
       </c>
       <c r="AB4" t="n">
-        <v>394.0364460782881</v>
+        <v>542.7557825785506</v>
       </c>
       <c r="AC4" t="n">
-        <v>356.4301606982011</v>
+        <v>490.955932451778</v>
       </c>
       <c r="AD4" t="n">
-        <v>287986.9470770809</v>
+        <v>396680.5162032483</v>
       </c>
       <c r="AE4" t="n">
-        <v>394036.4460782881</v>
+        <v>542755.7825785505</v>
       </c>
       <c r="AF4" t="n">
         <v>6.337202679096528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>356430.160698201</v>
+        <v>490955.932451778</v>
       </c>
     </row>
     <row r="5">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.6095441394592</v>
+        <v>382.1521844092697</v>
       </c>
       <c r="AB5" t="n">
-        <v>360.6822079239184</v>
+        <v>522.8774780732657</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.2592042203171</v>
+        <v>472.9747854291021</v>
       </c>
       <c r="AD5" t="n">
-        <v>263609.5441394592</v>
+        <v>382152.1844092697</v>
       </c>
       <c r="AE5" t="n">
-        <v>360682.2079239184</v>
+        <v>522877.4780732658</v>
       </c>
       <c r="AF5" t="n">
         <v>6.638574262340595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>326259.2042203171</v>
+        <v>472974.7854291021</v>
       </c>
     </row>
     <row r="6">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.7270385382902</v>
+        <v>358.5363600721766</v>
       </c>
       <c r="AB6" t="n">
-        <v>355.3699924763404</v>
+        <v>490.5652653586158</v>
       </c>
       <c r="AC6" t="n">
-        <v>321.4539791593147</v>
+        <v>443.7464049454629</v>
       </c>
       <c r="AD6" t="n">
-        <v>259727.0385382902</v>
+        <v>358536.3600721767</v>
       </c>
       <c r="AE6" t="n">
-        <v>355369.9924763404</v>
+        <v>490565.2653586158</v>
       </c>
       <c r="AF6" t="n">
         <v>6.922867002610035e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.06770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>321453.9791593147</v>
+        <v>443746.4049454629</v>
       </c>
     </row>
     <row r="7">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>247.5308948460442</v>
+        <v>356.2234529423576</v>
       </c>
       <c r="AB7" t="n">
-        <v>338.6826906205641</v>
+        <v>487.4006437853363</v>
       </c>
       <c r="AC7" t="n">
-        <v>306.3592899719802</v>
+        <v>440.883810413563</v>
       </c>
       <c r="AD7" t="n">
-        <v>247530.8948460442</v>
+        <v>356223.4529423576</v>
       </c>
       <c r="AE7" t="n">
-        <v>338682.6906205641</v>
+        <v>487400.6437853363</v>
       </c>
       <c r="AF7" t="n">
         <v>7.072712851134956e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>306359.2899719801</v>
+        <v>440883.810413563</v>
       </c>
     </row>
     <row r="8">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>246.0160903054895</v>
+        <v>344.7912464205982</v>
       </c>
       <c r="AB8" t="n">
-        <v>336.6100682197184</v>
+        <v>471.7585944689089</v>
       </c>
       <c r="AC8" t="n">
-        <v>304.4844757441266</v>
+        <v>426.7346163301413</v>
       </c>
       <c r="AD8" t="n">
-        <v>246016.0903054895</v>
+        <v>344791.2464205982</v>
       </c>
       <c r="AE8" t="n">
-        <v>336610.0682197183</v>
+        <v>471758.5944689089</v>
       </c>
       <c r="AF8" t="n">
         <v>7.183585339953843e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>304484.4757441266</v>
+        <v>426734.6163301413</v>
       </c>
     </row>
     <row r="9">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>245.8186943508725</v>
+        <v>344.5938504659812</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.3399823661166</v>
+        <v>471.4885086153071</v>
       </c>
       <c r="AC9" t="n">
-        <v>304.2401665053247</v>
+        <v>426.4903070913393</v>
       </c>
       <c r="AD9" t="n">
-        <v>245818.6943508725</v>
+        <v>344593.8504659812</v>
       </c>
       <c r="AE9" t="n">
-        <v>336339.9823661166</v>
+        <v>471488.508615307</v>
       </c>
       <c r="AF9" t="n">
         <v>7.174121981059707e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>304240.1665053247</v>
+        <v>426490.3070913393</v>
       </c>
     </row>
   </sheetData>
@@ -15686,28 +15686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.0438070580072</v>
+        <v>571.8037820034698</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.7765149065887</v>
+        <v>782.3671607396342</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.9704755892114</v>
+        <v>707.6991369778493</v>
       </c>
       <c r="AD2" t="n">
-        <v>412043.8070580072</v>
+        <v>571803.7820034698</v>
       </c>
       <c r="AE2" t="n">
-        <v>563776.5149065887</v>
+        <v>782367.1607396342</v>
       </c>
       <c r="AF2" t="n">
         <v>4.331947363765569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>509970.4755892114</v>
+        <v>707699.1369778493</v>
       </c>
     </row>
     <row r="3">
@@ -15792,28 +15792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.2746317690103</v>
+        <v>495.1534094194647</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.1024247969268</v>
+        <v>677.4907393944197</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.7094916233454</v>
+        <v>612.8319740908402</v>
       </c>
       <c r="AD3" t="n">
-        <v>355274.6317690103</v>
+        <v>495153.4094194646</v>
       </c>
       <c r="AE3" t="n">
-        <v>486102.4247969268</v>
+        <v>677490.7393944197</v>
       </c>
       <c r="AF3" t="n">
         <v>4.88276636734768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>439709.4916233454</v>
+        <v>612831.9740908402</v>
       </c>
     </row>
     <row r="4">
@@ -15898,28 +15898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.3122302116572</v>
+        <v>456.1996666013648</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.4747892551771</v>
+        <v>624.1925099528492</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.8638619999646</v>
+        <v>564.6204528626383</v>
       </c>
       <c r="AD4" t="n">
-        <v>326312.2302116572</v>
+        <v>456199.6666013647</v>
       </c>
       <c r="AE4" t="n">
-        <v>446474.7892551771</v>
+        <v>624192.5099528491</v>
       </c>
       <c r="AF4" t="n">
         <v>5.255219002434425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>403863.8619999646</v>
+        <v>564620.4528626383</v>
       </c>
     </row>
     <row r="5">
@@ -16004,28 +16004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.1898991958332</v>
+        <v>430.0186745170897</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.4155046922812</v>
+        <v>588.3705215592908</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.909884595351</v>
+        <v>532.2172647648847</v>
       </c>
       <c r="AD5" t="n">
-        <v>310189.8991958332</v>
+        <v>430018.6745170897</v>
       </c>
       <c r="AE5" t="n">
-        <v>424415.5046922812</v>
+        <v>588370.5215592907</v>
       </c>
       <c r="AF5" t="n">
         <v>5.552703806667242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>383909.884595351</v>
+        <v>532217.2647648847</v>
       </c>
     </row>
     <row r="6">
@@ -16110,28 +16110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.7163157908477</v>
+        <v>415.5109256933232</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.6121093481451</v>
+        <v>568.5203795819069</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.9964975086195</v>
+        <v>514.2615924779732</v>
       </c>
       <c r="AD6" t="n">
-        <v>295716.3157908476</v>
+        <v>415510.9256933232</v>
       </c>
       <c r="AE6" t="n">
-        <v>404612.1093481451</v>
+        <v>568520.3795819069</v>
       </c>
       <c r="AF6" t="n">
         <v>5.786842090849785e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>365996.4975086195</v>
+        <v>514261.5924779731</v>
       </c>
     </row>
     <row r="7">
@@ -16216,28 +16216,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>282.2051601699529</v>
+        <v>402.067089880133</v>
       </c>
       <c r="AB7" t="n">
-        <v>386.1255501575195</v>
+        <v>550.1259303221228</v>
       </c>
       <c r="AC7" t="n">
-        <v>349.2742695810984</v>
+        <v>497.6226836387712</v>
       </c>
       <c r="AD7" t="n">
-        <v>282205.160169953</v>
+        <v>402067.089880133</v>
       </c>
       <c r="AE7" t="n">
-        <v>386125.5501575195</v>
+        <v>550125.9303221229</v>
       </c>
       <c r="AF7" t="n">
         <v>5.986427727732179e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>349274.2695810984</v>
+        <v>497622.6836387712</v>
       </c>
     </row>
     <row r="8">
@@ -16322,28 +16322,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>268.5331548118193</v>
+        <v>388.3609191032185</v>
       </c>
       <c r="AB8" t="n">
-        <v>367.418909260214</v>
+        <v>531.3725427915695</v>
       </c>
       <c r="AC8" t="n">
-        <v>332.3529642360963</v>
+        <v>480.6590930935892</v>
       </c>
       <c r="AD8" t="n">
-        <v>268533.1548118193</v>
+        <v>388360.9191032185</v>
       </c>
       <c r="AE8" t="n">
-        <v>367418.909260214</v>
+        <v>531372.5427915695</v>
       </c>
       <c r="AF8" t="n">
         <v>6.17875004536229e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>332352.9642360963</v>
+        <v>480659.0930935892</v>
       </c>
     </row>
     <row r="9">
@@ -16428,28 +16428,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>268.3777941632757</v>
+        <v>378.2825480314899</v>
       </c>
       <c r="AB9" t="n">
-        <v>367.2063379668486</v>
+        <v>517.5828708648787</v>
       </c>
       <c r="AC9" t="n">
-        <v>332.1606804486241</v>
+        <v>468.1854881016557</v>
       </c>
       <c r="AD9" t="n">
-        <v>268377.7941632757</v>
+        <v>378282.5480314898</v>
       </c>
       <c r="AE9" t="n">
-        <v>367206.3379668486</v>
+        <v>517582.8708648788</v>
       </c>
       <c r="AF9" t="n">
         <v>6.210812411775942e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>332160.6804486241</v>
+        <v>468185.4881016557</v>
       </c>
     </row>
     <row r="10">
@@ -16534,28 +16534,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>265.7994521256628</v>
+        <v>375.6027207673916</v>
       </c>
       <c r="AB10" t="n">
-        <v>363.6785366425638</v>
+        <v>513.9162129765047</v>
       </c>
       <c r="AC10" t="n">
-        <v>328.9695675314288</v>
+        <v>464.8687708959613</v>
       </c>
       <c r="AD10" t="n">
-        <v>265799.4521256628</v>
+        <v>375602.7207673916</v>
       </c>
       <c r="AE10" t="n">
-        <v>363678.5366425638</v>
+        <v>513916.2129765047</v>
       </c>
       <c r="AF10" t="n">
         <v>6.3505794265306e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>328969.5675314288</v>
+        <v>464868.7708959613</v>
       </c>
     </row>
     <row r="11">
@@ -16640,28 +16640,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>253.3678709530166</v>
+        <v>363.238459402453</v>
       </c>
       <c r="AB11" t="n">
-        <v>346.6690988393315</v>
+        <v>496.998885104282</v>
       </c>
       <c r="AC11" t="n">
-        <v>313.5834865993452</v>
+        <v>449.5660090522447</v>
       </c>
       <c r="AD11" t="n">
-        <v>253367.8709530166</v>
+        <v>363238.459402453</v>
       </c>
       <c r="AE11" t="n">
-        <v>346669.0988393315</v>
+        <v>496998.8851042819</v>
       </c>
       <c r="AF11" t="n">
         <v>6.475664160225285e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH11" t="n">
-        <v>313583.4865993452</v>
+        <v>449566.0090522447</v>
       </c>
     </row>
     <row r="12">
@@ -16746,28 +16746,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>252.1112884102724</v>
+        <v>361.9818768597088</v>
       </c>
       <c r="AB12" t="n">
-        <v>344.9497871678404</v>
+        <v>495.27957343279</v>
       </c>
       <c r="AC12" t="n">
-        <v>312.0282636207116</v>
+        <v>448.0107860736109</v>
       </c>
       <c r="AD12" t="n">
-        <v>252111.2884102724</v>
+        <v>361981.8768597088</v>
       </c>
       <c r="AE12" t="n">
-        <v>344949.7871678404</v>
+        <v>495279.57343279</v>
       </c>
       <c r="AF12" t="n">
         <v>6.534548927020585e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>312028.2636207116</v>
+        <v>448010.7860736109</v>
       </c>
     </row>
     <row r="13">
@@ -16852,28 +16852,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>252.1656363923585</v>
+        <v>362.0362248417949</v>
       </c>
       <c r="AB13" t="n">
-        <v>345.0241484745944</v>
+        <v>495.3539347395439</v>
       </c>
       <c r="AC13" t="n">
-        <v>312.0955279887157</v>
+        <v>448.078050441615</v>
       </c>
       <c r="AD13" t="n">
-        <v>252165.6363923585</v>
+        <v>362036.2248417949</v>
       </c>
       <c r="AE13" t="n">
-        <v>345024.1484745943</v>
+        <v>495353.9347395439</v>
       </c>
       <c r="AF13" t="n">
         <v>6.534133880206168e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>312095.5279887157</v>
+        <v>448078.050441615</v>
       </c>
     </row>
   </sheetData>
@@ -17149,28 +17149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.6589069502203</v>
+        <v>317.5433447861535</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.283495389965</v>
+        <v>434.4768133600809</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.3385442510956</v>
+        <v>393.0109560850315</v>
       </c>
       <c r="AD2" t="n">
-        <v>221658.9069502203</v>
+        <v>317543.3447861535</v>
       </c>
       <c r="AE2" t="n">
-        <v>303283.495389965</v>
+        <v>434476.8133600809</v>
       </c>
       <c r="AF2" t="n">
         <v>9.446558554604758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>274338.5442510956</v>
+        <v>393010.9560850315</v>
       </c>
     </row>
     <row r="3">
@@ -17255,28 +17255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.1336610081195</v>
+        <v>317.0180988440528</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.5648307197675</v>
+        <v>433.7581486898831</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.6884679283693</v>
+        <v>392.3608797623051</v>
       </c>
       <c r="AD3" t="n">
-        <v>221133.6610081195</v>
+        <v>317018.0988440528</v>
       </c>
       <c r="AE3" t="n">
-        <v>302564.8307197675</v>
+        <v>433758.1486898831</v>
       </c>
       <c r="AF3" t="n">
         <v>9.53095788827287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273688.4679283693</v>
+        <v>392360.8797623051</v>
       </c>
     </row>
   </sheetData>
@@ -17552,28 +17552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.0271316567768</v>
+        <v>512.8197147041689</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.0779812764118</v>
+        <v>701.6625576673351</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.5421178002275</v>
+        <v>634.6968679531486</v>
       </c>
       <c r="AD2" t="n">
-        <v>364027.1316567768</v>
+        <v>512819.7147041689</v>
       </c>
       <c r="AE2" t="n">
-        <v>498077.9812764119</v>
+        <v>701662.5576673351</v>
       </c>
       <c r="AF2" t="n">
         <v>4.960164402543702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>450542.1178002275</v>
+        <v>634696.8679531487</v>
       </c>
     </row>
     <row r="3">
@@ -17658,28 +17658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.0276798572959</v>
+        <v>451.0988157242663</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.6124784393188</v>
+        <v>617.2133007491445</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.561041900567</v>
+        <v>558.3073295899535</v>
       </c>
       <c r="AD3" t="n">
-        <v>322027.6798572959</v>
+        <v>451098.8157242663</v>
       </c>
       <c r="AE3" t="n">
-        <v>440612.4784393188</v>
+        <v>617213.3007491445</v>
       </c>
       <c r="AF3" t="n">
         <v>5.487859923546225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>398561.041900567</v>
+        <v>558307.3295899535</v>
       </c>
     </row>
     <row r="4">
@@ -17764,28 +17764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.4122833385528</v>
+        <v>423.4150883679615</v>
       </c>
       <c r="AB4" t="n">
-        <v>402.8278746170637</v>
+        <v>579.3352036603936</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.3825476360833</v>
+        <v>524.04426492511</v>
       </c>
       <c r="AD4" t="n">
-        <v>294412.2833385527</v>
+        <v>423415.0883679615</v>
       </c>
       <c r="AE4" t="n">
-        <v>402827.8746170637</v>
+        <v>579335.2036603936</v>
       </c>
       <c r="AF4" t="n">
         <v>5.902946423987541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>364382.5476360833</v>
+        <v>524044.2649251101</v>
       </c>
     </row>
     <row r="5">
@@ -17870,28 +17870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>279.6193596039756</v>
+        <v>398.7277811393212</v>
       </c>
       <c r="AB5" t="n">
-        <v>382.5875437456795</v>
+        <v>545.5569407830399</v>
       </c>
       <c r="AC5" t="n">
-        <v>346.0739255355811</v>
+        <v>493.4897520486813</v>
       </c>
       <c r="AD5" t="n">
-        <v>279619.3596039756</v>
+        <v>398727.7811393212</v>
       </c>
       <c r="AE5" t="n">
-        <v>382587.5437456794</v>
+        <v>545556.9407830399</v>
       </c>
       <c r="AF5" t="n">
         <v>6.194092519516519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>346073.9255355811</v>
+        <v>493489.7520486813</v>
       </c>
     </row>
     <row r="6">
@@ -17976,28 +17976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>276.3893646658972</v>
+        <v>385.5360828994754</v>
       </c>
       <c r="AB6" t="n">
-        <v>378.1681221740809</v>
+        <v>527.5074772746303</v>
       </c>
       <c r="AC6" t="n">
-        <v>342.0762873560789</v>
+        <v>477.1629040049331</v>
       </c>
       <c r="AD6" t="n">
-        <v>276389.3646658972</v>
+        <v>385536.0828994754</v>
       </c>
       <c r="AE6" t="n">
-        <v>378168.1221740809</v>
+        <v>527507.4772746303</v>
       </c>
       <c r="AF6" t="n">
         <v>6.396051403286621e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>342076.2873560789</v>
+        <v>477162.9040049331</v>
       </c>
     </row>
     <row r="7">
@@ -18082,28 +18082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>262.3625333148594</v>
+        <v>371.4750861296569</v>
       </c>
       <c r="AB7" t="n">
-        <v>358.9759926994661</v>
+        <v>508.2686011667677</v>
       </c>
       <c r="AC7" t="n">
-        <v>324.7158277821984</v>
+        <v>459.7601592308727</v>
       </c>
       <c r="AD7" t="n">
-        <v>262362.5333148594</v>
+        <v>371475.0861296569</v>
       </c>
       <c r="AE7" t="n">
-        <v>358975.9926994661</v>
+        <v>508268.6011667677</v>
       </c>
       <c r="AF7" t="n">
         <v>6.650817791161978e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>324715.8277821984</v>
+        <v>459760.1592308726</v>
       </c>
     </row>
     <row r="8">
@@ -18188,28 +18188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.6770047788783</v>
+        <v>371.7895575936757</v>
       </c>
       <c r="AB8" t="n">
-        <v>359.4062664300385</v>
+        <v>508.6988748973401</v>
       </c>
       <c r="AC8" t="n">
-        <v>325.1050367918179</v>
+        <v>460.1493682404922</v>
       </c>
       <c r="AD8" t="n">
-        <v>262677.0047788782</v>
+        <v>371789.5575936757</v>
       </c>
       <c r="AE8" t="n">
-        <v>359406.2664300385</v>
+        <v>508698.8748973401</v>
       </c>
       <c r="AF8" t="n">
         <v>6.649896099611886e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>325105.0367918179</v>
+        <v>460149.3682404922</v>
       </c>
     </row>
     <row r="9">
@@ -18294,28 +18294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>248.7038726835595</v>
+        <v>357.7822600795792</v>
       </c>
       <c r="AB9" t="n">
-        <v>340.2876106459817</v>
+        <v>489.5334724802002</v>
       </c>
       <c r="AC9" t="n">
-        <v>307.8110386826917</v>
+        <v>442.813084931233</v>
       </c>
       <c r="AD9" t="n">
-        <v>248703.8726835595</v>
+        <v>357782.2600795792</v>
       </c>
       <c r="AE9" t="n">
-        <v>340287.6106459817</v>
+        <v>489533.4724802002</v>
       </c>
       <c r="AF9" t="n">
         <v>6.890294942735815e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>307811.0386826918</v>
+        <v>442813.084931233</v>
       </c>
     </row>
     <row r="10">
@@ -18400,28 +18400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>248.5266268115118</v>
+        <v>357.7064994340167</v>
       </c>
       <c r="AB10" t="n">
-        <v>340.0450950243102</v>
+        <v>489.4298134226179</v>
       </c>
       <c r="AC10" t="n">
-        <v>307.5916684115797</v>
+        <v>442.71931894862</v>
       </c>
       <c r="AD10" t="n">
-        <v>248526.6268115118</v>
+        <v>357706.4994340168</v>
       </c>
       <c r="AE10" t="n">
-        <v>340045.0950243102</v>
+        <v>489429.813422618</v>
       </c>
       <c r="AF10" t="n">
         <v>6.87668643808446e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>307591.6684115797</v>
+        <v>442719.3189486199</v>
       </c>
     </row>
     <row r="11">
@@ -18506,28 +18506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>247.9234607920472</v>
+        <v>347.1416301127846</v>
       </c>
       <c r="AB11" t="n">
-        <v>339.2198166666723</v>
+        <v>474.9744931281687</v>
       </c>
       <c r="AC11" t="n">
-        <v>306.8451534621091</v>
+        <v>429.6435941349033</v>
       </c>
       <c r="AD11" t="n">
-        <v>247923.4607920472</v>
+        <v>347141.6301127846</v>
       </c>
       <c r="AE11" t="n">
-        <v>339219.8166666724</v>
+        <v>474974.4931281687</v>
       </c>
       <c r="AF11" t="n">
         <v>6.942506058191011e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>306845.1534621091</v>
+        <v>429643.5941349033</v>
       </c>
     </row>
   </sheetData>
@@ -18803,28 +18803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.2982500833918</v>
+        <v>344.4260794323434</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.0501787407694</v>
+        <v>471.2589568855481</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.9324072961472</v>
+        <v>426.2826634564908</v>
       </c>
       <c r="AD2" t="n">
-        <v>238298.2500833918</v>
+        <v>344426.0794323434</v>
       </c>
       <c r="AE2" t="n">
-        <v>326050.1787407694</v>
+        <v>471258.9568855481</v>
       </c>
       <c r="AF2" t="n">
         <v>8.434868950425208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294932.4072961472</v>
+        <v>426282.6634564907</v>
       </c>
     </row>
     <row r="3">
@@ -18909,28 +18909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.1390051687224</v>
+        <v>320.6499095030247</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.6768751867292</v>
+        <v>438.7273522576667</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.4080646426961</v>
+        <v>396.8558295159004</v>
       </c>
       <c r="AD3" t="n">
-        <v>224139.0051687224</v>
+        <v>320649.9095030247</v>
       </c>
       <c r="AE3" t="n">
-        <v>306676.8751867292</v>
+        <v>438727.3522576666</v>
       </c>
       <c r="AF3" t="n">
         <v>8.930121970512523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277408.0646426961</v>
+        <v>396855.8295159005</v>
       </c>
     </row>
     <row r="4">
@@ -19015,28 +19015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.9246234608236</v>
+        <v>320.4355277951258</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.3835486761287</v>
+        <v>438.434025747066</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.142732802581</v>
+        <v>396.5904976757852</v>
       </c>
       <c r="AD4" t="n">
-        <v>223924.6234608236</v>
+        <v>320435.5277951258</v>
       </c>
       <c r="AE4" t="n">
-        <v>306383.5486761287</v>
+        <v>438434.025747066</v>
       </c>
       <c r="AF4" t="n">
         <v>8.962949319800804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>277142.7328025809</v>
+        <v>396590.4976757852</v>
       </c>
     </row>
   </sheetData>
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.2125457204427</v>
+        <v>400.366565441697</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.5038995104134</v>
+        <v>547.7991977636113</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.5210712062776</v>
+        <v>495.5180111700543</v>
       </c>
       <c r="AD2" t="n">
-        <v>283212.5457204427</v>
+        <v>400366.565441697</v>
       </c>
       <c r="AE2" t="n">
-        <v>387503.8995104134</v>
+        <v>547799.1977636113</v>
       </c>
       <c r="AF2" t="n">
         <v>6.808669677583635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>350521.0712062776</v>
+        <v>495518.0111700543</v>
       </c>
     </row>
     <row r="3">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.4701678907979</v>
+        <v>363.8613526352842</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.9137983732832</v>
+        <v>497.8511551055514</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.4230779672512</v>
+        <v>450.3369396007616</v>
       </c>
       <c r="AD3" t="n">
-        <v>256470.1678907979</v>
+        <v>363861.3526352842</v>
       </c>
       <c r="AE3" t="n">
-        <v>350913.7983732832</v>
+        <v>497851.1551055514</v>
       </c>
       <c r="AF3" t="n">
         <v>7.386985430763358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>317423.0779672512</v>
+        <v>450336.9396007616</v>
       </c>
     </row>
     <row r="4">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.7358455225884</v>
+        <v>348.9913796218085</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.7536484766832</v>
+        <v>477.505402011604</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.1869844818282</v>
+        <v>431.9329566266566</v>
       </c>
       <c r="AD4" t="n">
-        <v>241735.8455225884</v>
+        <v>348991.3796218085</v>
       </c>
       <c r="AE4" t="n">
-        <v>330753.6484766832</v>
+        <v>477505.402011604</v>
       </c>
       <c r="AF4" t="n">
         <v>7.829013345524836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>299186.9844818282</v>
+        <v>431932.9566266566</v>
       </c>
     </row>
     <row r="5">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.2668326636879</v>
+        <v>336.5896865706123</v>
       </c>
       <c r="AB5" t="n">
-        <v>313.6929949891205</v>
+        <v>460.5368584548739</v>
       </c>
       <c r="AC5" t="n">
-        <v>283.7545758183354</v>
+        <v>416.5838670514805</v>
       </c>
       <c r="AD5" t="n">
-        <v>229266.8326636879</v>
+        <v>336589.6865706123</v>
       </c>
       <c r="AE5" t="n">
-        <v>313692.9949891205</v>
+        <v>460536.858454874</v>
       </c>
       <c r="AF5" t="n">
         <v>8.05654942971024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>283754.5758183354</v>
+        <v>416583.8670514805</v>
       </c>
     </row>
     <row r="6">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.2206543791291</v>
+        <v>336.5435082860535</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.629811822945</v>
+        <v>460.4736752886984</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.6974227648615</v>
+        <v>416.5267139980066</v>
       </c>
       <c r="AD6" t="n">
-        <v>229220.6543791291</v>
+        <v>336543.5082860534</v>
       </c>
       <c r="AE6" t="n">
-        <v>313629.811822945</v>
+        <v>460473.6752886984</v>
       </c>
       <c r="AF6" t="n">
         <v>8.067993916367482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>283697.4227648615</v>
+        <v>416526.7139980066</v>
       </c>
     </row>
   </sheetData>
@@ -20033,28 +20033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.5064179901384</v>
+        <v>313.7038378822017</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.9701209167858</v>
+        <v>429.2234306270042</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.4368321837761</v>
+        <v>388.2589488268306</v>
       </c>
       <c r="AD2" t="n">
-        <v>218506.4179901384</v>
+        <v>313703.8378822017</v>
       </c>
       <c r="AE2" t="n">
-        <v>298970.1209167858</v>
+        <v>429223.4306270042</v>
       </c>
       <c r="AF2" t="n">
         <v>1.014516174266408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>270436.8321837761</v>
+        <v>388258.9488268306</v>
       </c>
     </row>
   </sheetData>
@@ -20330,28 +20330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.1994458119211</v>
+        <v>318.1414596906876</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7595727412066</v>
+        <v>435.2951805594318</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.482869658641</v>
+        <v>393.7512194674618</v>
       </c>
       <c r="AD2" t="n">
-        <v>224199.4458119211</v>
+        <v>318141.4596906876</v>
       </c>
       <c r="AE2" t="n">
-        <v>306759.5727412066</v>
+        <v>435295.1805594318</v>
       </c>
       <c r="AF2" t="n">
         <v>1.126667819106889e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>277482.869658641</v>
+        <v>393751.2194674618</v>
       </c>
     </row>
   </sheetData>
@@ -34200,28 +34200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.0355784989307</v>
+        <v>487.7288555630491</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.5658768651995</v>
+        <v>667.332137259873</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.9876598451019</v>
+        <v>603.6428946863269</v>
       </c>
       <c r="AD2" t="n">
-        <v>349035.5784989307</v>
+        <v>487728.8555630491</v>
       </c>
       <c r="AE2" t="n">
-        <v>477565.8768651995</v>
+        <v>667332.137259873</v>
       </c>
       <c r="AF2" t="n">
         <v>5.175642411696941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>431987.6598451019</v>
+        <v>603642.894686327</v>
       </c>
     </row>
     <row r="3">
@@ -34306,28 +34306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.8054871532374</v>
+        <v>436.6522845335582</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.8354881116302</v>
+        <v>597.4469194380423</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.335399421696</v>
+        <v>540.4274239688926</v>
       </c>
       <c r="AD3" t="n">
-        <v>317805.4871532375</v>
+        <v>436652.2845335582</v>
       </c>
       <c r="AE3" t="n">
-        <v>434835.4881116302</v>
+        <v>597446.9194380423</v>
       </c>
       <c r="AF3" t="n">
         <v>5.7259086621663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393335.399421696</v>
+        <v>540427.4239688927</v>
       </c>
     </row>
     <row r="4">
@@ -34412,28 +34412,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.1699459245102</v>
+        <v>409.9484124672692</v>
       </c>
       <c r="AB4" t="n">
-        <v>398.3915655253393</v>
+        <v>560.9095035852558</v>
       </c>
       <c r="AC4" t="n">
-        <v>360.3696336576741</v>
+        <v>507.3770878045108</v>
       </c>
       <c r="AD4" t="n">
-        <v>291169.9459245101</v>
+        <v>409948.4124672692</v>
       </c>
       <c r="AE4" t="n">
-        <v>398391.5655253393</v>
+        <v>560909.5035852558</v>
       </c>
       <c r="AF4" t="n">
         <v>6.113794041125783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>360369.6336576741</v>
+        <v>507377.0878045108</v>
       </c>
     </row>
     <row r="5">
@@ -34518,28 +34518,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.7016811876784</v>
+        <v>385.6076505017813</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.5954474176145</v>
+        <v>527.6053992254451</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.4628292781243</v>
+        <v>477.2514804221964</v>
       </c>
       <c r="AD5" t="n">
-        <v>276701.6811876784</v>
+        <v>385607.6505017813</v>
       </c>
       <c r="AE5" t="n">
-        <v>378595.4474176145</v>
+        <v>527605.3992254451</v>
       </c>
       <c r="AF5" t="n">
         <v>6.403413655236683e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>342462.8292781243</v>
+        <v>477251.4804221964</v>
       </c>
     </row>
     <row r="6">
@@ -34624,28 +34624,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.3921970184999</v>
+        <v>372.3654861403073</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.3848240043436</v>
+        <v>509.4868857430156</v>
       </c>
       <c r="AC6" t="n">
-        <v>325.9902022046455</v>
+        <v>460.8621724370366</v>
       </c>
       <c r="AD6" t="n">
-        <v>263392.1970185</v>
+        <v>372365.4861403073</v>
       </c>
       <c r="AE6" t="n">
-        <v>360384.8240043436</v>
+        <v>509486.8857430156</v>
       </c>
       <c r="AF6" t="n">
         <v>6.619719517658422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>325990.2022046455</v>
+        <v>460862.1724370366</v>
       </c>
     </row>
     <row r="7">
@@ -34730,28 +34730,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.2767726186644</v>
+        <v>358.215896321694</v>
       </c>
       <c r="AB7" t="n">
-        <v>341.0714776117531</v>
+        <v>490.1267927173425</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.5200944854144</v>
+        <v>443.3497795176726</v>
       </c>
       <c r="AD7" t="n">
-        <v>249276.7726186644</v>
+        <v>358215.896321694</v>
       </c>
       <c r="AE7" t="n">
-        <v>341071.4776117531</v>
+        <v>490126.7927173426</v>
       </c>
       <c r="AF7" t="n">
         <v>6.892649374622954e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>308520.0944854144</v>
+        <v>443349.7795176726</v>
       </c>
     </row>
     <row r="8">
@@ -34836,28 +34836,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>248.8434137945444</v>
+        <v>357.7825374975741</v>
       </c>
       <c r="AB8" t="n">
-        <v>340.4785369501505</v>
+        <v>489.5338520557397</v>
       </c>
       <c r="AC8" t="n">
-        <v>307.9837432483575</v>
+        <v>442.8134282806157</v>
       </c>
       <c r="AD8" t="n">
-        <v>248843.4137945444</v>
+        <v>357782.5374975741</v>
       </c>
       <c r="AE8" t="n">
-        <v>340478.5369501505</v>
+        <v>489533.8520557397</v>
       </c>
       <c r="AF8" t="n">
         <v>6.92393578405905e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>307983.7432483575</v>
+        <v>442813.4282806157</v>
       </c>
     </row>
     <row r="9">
@@ -34942,28 +34942,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.8072034405059</v>
+        <v>345.8065101071749</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.6925041124955</v>
+        <v>473.1477230351558</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.4636054745058</v>
+        <v>427.9911684156797</v>
       </c>
       <c r="AD9" t="n">
-        <v>246807.2034405059</v>
+        <v>345806.5101071749</v>
       </c>
       <c r="AE9" t="n">
-        <v>337692.5041124955</v>
+        <v>473147.7230351557</v>
       </c>
       <c r="AF9" t="n">
         <v>7.059216455846112e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>305463.6054745057</v>
+        <v>427991.1684156797</v>
       </c>
     </row>
     <row r="10">
@@ -35048,28 +35048,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>246.8797037482692</v>
+        <v>345.8790104149381</v>
       </c>
       <c r="AB10" t="n">
-        <v>337.791702232065</v>
+        <v>473.2469211547253</v>
       </c>
       <c r="AC10" t="n">
-        <v>305.553336264769</v>
+        <v>428.080899205943</v>
       </c>
       <c r="AD10" t="n">
-        <v>246879.7037482692</v>
+        <v>345879.0104149382</v>
       </c>
       <c r="AE10" t="n">
-        <v>337791.702232065</v>
+        <v>473246.9211547252</v>
       </c>
       <c r="AF10" t="n">
         <v>7.054975164426077e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>305553.336264769</v>
+        <v>428080.899205943</v>
       </c>
     </row>
   </sheetData>
@@ -35345,28 +35345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.4927112195028</v>
+        <v>323.8241873949001</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.0560990591592</v>
+        <v>443.0705393085877</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.132850306949</v>
+        <v>400.7845088903829</v>
       </c>
       <c r="AD2" t="n">
-        <v>221492.7112195028</v>
+        <v>323824.1873949001</v>
       </c>
       <c r="AE2" t="n">
-        <v>303056.0990591592</v>
+        <v>443070.5393085877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.220875199925134e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>274132.850306949</v>
+        <v>400784.5088903829</v>
       </c>
     </row>
   </sheetData>
@@ -35642,28 +35642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.3493085499835</v>
+        <v>373.8454440096622</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.3801891743576</v>
+        <v>511.5118293910003</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.0358342778364</v>
+        <v>462.6938583052838</v>
       </c>
       <c r="AD2" t="n">
-        <v>255349.3085499835</v>
+        <v>373845.4440096622</v>
       </c>
       <c r="AE2" t="n">
-        <v>349380.1891743576</v>
+        <v>511511.8293910003</v>
       </c>
       <c r="AF2" t="n">
         <v>1.369443356932859e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316035.8342778364</v>
+        <v>462693.8583052838</v>
       </c>
     </row>
   </sheetData>
@@ -35939,28 +35939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.4897184200164</v>
+        <v>330.6267505344869</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.839177698383</v>
+        <v>452.3781063040755</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.2187368795587</v>
+        <v>409.2037747550736</v>
       </c>
       <c r="AD2" t="n">
-        <v>234489.7184200164</v>
+        <v>330626.7505344868</v>
       </c>
       <c r="AE2" t="n">
-        <v>320839.177698383</v>
+        <v>452378.1063040755</v>
       </c>
       <c r="AF2" t="n">
         <v>8.950520010760276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>290218.7368795587</v>
+        <v>409203.7747550736</v>
       </c>
     </row>
     <row r="3">
@@ -36045,28 +36045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.662475641728</v>
+        <v>318.8668275639027</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.6566223480111</v>
+        <v>436.2876608845367</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.580621899462</v>
+        <v>394.6489788632937</v>
       </c>
       <c r="AD3" t="n">
-        <v>222662.475641728</v>
+        <v>318866.8275639027</v>
       </c>
       <c r="AE3" t="n">
-        <v>304656.6223480111</v>
+        <v>436287.6608845367</v>
       </c>
       <c r="AF3" t="n">
         <v>9.207118101700754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH3" t="n">
-        <v>275580.621899462</v>
+        <v>394648.9788632937</v>
       </c>
     </row>
   </sheetData>
@@ -36342,28 +36342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.9985714296296</v>
+        <v>385.8003515263679</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.0557128094341</v>
+        <v>527.8690612686536</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.9289921483382</v>
+        <v>477.4899789300532</v>
       </c>
       <c r="AD2" t="n">
-        <v>268998.5714296296</v>
+        <v>385800.3515263679</v>
       </c>
       <c r="AE2" t="n">
-        <v>368055.7128094341</v>
+        <v>527869.0612686536</v>
       </c>
       <c r="AF2" t="n">
         <v>7.195871639932685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>332928.9921483382</v>
+        <v>477489.9789300532</v>
       </c>
     </row>
     <row r="3">
@@ -36448,28 +36448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.0230723959538</v>
+        <v>360.021203892031</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.1973302421196</v>
+        <v>492.5968941796265</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.1567429349198</v>
+        <v>445.5841379632054</v>
       </c>
       <c r="AD3" t="n">
-        <v>253023.0723959538</v>
+        <v>360021.203892031</v>
       </c>
       <c r="AE3" t="n">
-        <v>346197.3302421196</v>
+        <v>492596.8941796265</v>
       </c>
       <c r="AF3" t="n">
         <v>7.747257261673443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>313156.7429349198</v>
+        <v>445584.1379632053</v>
       </c>
     </row>
     <row r="4">
@@ -36554,28 +36554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.9162857061959</v>
+        <v>336.2122538280937</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.8958023456968</v>
+        <v>460.0204383254027</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.6973257710608</v>
+        <v>416.1167333343656</v>
       </c>
       <c r="AD4" t="n">
-        <v>238916.2857061959</v>
+        <v>336212.2538280936</v>
       </c>
       <c r="AE4" t="n">
-        <v>326895.8023456968</v>
+        <v>460020.4383254027</v>
       </c>
       <c r="AF4" t="n">
         <v>8.152055305371581e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>295697.3257710608</v>
+        <v>416116.7333343656</v>
       </c>
     </row>
     <row r="5">
@@ -36660,28 +36660,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.6958833384963</v>
+        <v>325.0591712680983</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.5435528170015</v>
+        <v>444.7602987275408</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.8102733903617</v>
+        <v>402.3130000419833</v>
       </c>
       <c r="AD5" t="n">
-        <v>227695.8833384963</v>
+        <v>325059.1712680983</v>
       </c>
       <c r="AE5" t="n">
-        <v>311543.5528170015</v>
+        <v>444760.2987275408</v>
       </c>
       <c r="AF5" t="n">
         <v>8.294806829248352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>281810.2733903617</v>
+        <v>402313.0000419833</v>
       </c>
     </row>
     <row r="6">
@@ -36766,28 +36766,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.7520203706066</v>
+        <v>325.1153083002087</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.6203619809258</v>
+        <v>444.8371078914652</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.8797519954834</v>
+        <v>402.3824786471051</v>
       </c>
       <c r="AD6" t="n">
-        <v>227752.0203706066</v>
+        <v>325115.3083002086</v>
       </c>
       <c r="AE6" t="n">
-        <v>311620.3619809258</v>
+        <v>444837.1078914652</v>
       </c>
       <c r="AF6" t="n">
         <v>8.292983131366225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>281879.7519954834</v>
+        <v>402382.4786471051</v>
       </c>
     </row>
   </sheetData>
@@ -37063,28 +37063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.1159807939013</v>
+        <v>442.9043937241455</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.15558685814</v>
+        <v>606.0013310561949</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.0067027790651</v>
+        <v>548.1654145484008</v>
       </c>
       <c r="AD2" t="n">
-        <v>315115.9807939013</v>
+        <v>442904.3937241455</v>
       </c>
       <c r="AE2" t="n">
-        <v>431155.58685814</v>
+        <v>606001.3310561948</v>
       </c>
       <c r="AF2" t="n">
         <v>5.930251529708379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>390006.7027790651</v>
+        <v>548165.4145484008</v>
       </c>
     </row>
     <row r="3">
@@ -37169,28 +37169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.738759364083</v>
+        <v>404.6894878207326</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.3286205832088</v>
+        <v>553.7140108764831</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.8853276714239</v>
+        <v>500.8683228209261</v>
       </c>
       <c r="AD3" t="n">
-        <v>286738.7593640829</v>
+        <v>404689.4878207326</v>
       </c>
       <c r="AE3" t="n">
-        <v>392328.6205832087</v>
+        <v>553714.0108764832</v>
       </c>
       <c r="AF3" t="n">
         <v>6.472402209398889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>354885.3276714238</v>
+        <v>500868.3228209261</v>
       </c>
     </row>
     <row r="4">
@@ -37275,28 +37275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.3969173668045</v>
+        <v>379.3808002123777</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.6547943593682</v>
+        <v>519.0855479502363</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.5207227573659</v>
+        <v>469.5447517950072</v>
       </c>
       <c r="AD4" t="n">
-        <v>261396.9173668045</v>
+        <v>379380.8002123777</v>
       </c>
       <c r="AE4" t="n">
-        <v>357654.7943593682</v>
+        <v>519085.5479502364</v>
       </c>
       <c r="AF4" t="n">
         <v>6.868923839377923e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>323520.7227573659</v>
+        <v>469544.7517950073</v>
       </c>
     </row>
     <row r="5">
@@ -37381,28 +37381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>247.3381067820494</v>
+        <v>355.518470572812</v>
       </c>
       <c r="AB5" t="n">
-        <v>338.4189094861974</v>
+        <v>486.436055805697</v>
       </c>
       <c r="AC5" t="n">
-        <v>306.1206837388581</v>
+        <v>440.0112813568927</v>
       </c>
       <c r="AD5" t="n">
-        <v>247338.1067820494</v>
+        <v>355518.470572812</v>
       </c>
       <c r="AE5" t="n">
-        <v>338418.9094861975</v>
+        <v>486436.055805697</v>
       </c>
       <c r="AF5" t="n">
         <v>7.193587885688092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>306120.6837388581</v>
+        <v>440011.2813568927</v>
       </c>
     </row>
     <row r="6">
@@ -37487,28 +37487,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.4216346561639</v>
+        <v>341.7311595844083</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.0602195410078</v>
+        <v>467.5716486581305</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.2734196410672</v>
+        <v>422.9472667511283</v>
       </c>
       <c r="AD6" t="n">
-        <v>243421.634656164</v>
+        <v>341731.1595844083</v>
       </c>
       <c r="AE6" t="n">
-        <v>333060.2195410078</v>
+        <v>467571.6486581306</v>
       </c>
       <c r="AF6" t="n">
         <v>7.479916288087755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>301273.4196410672</v>
+        <v>422947.2667511282</v>
       </c>
     </row>
     <row r="7">
@@ -37593,28 +37593,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.9862518503823</v>
+        <v>341.2957767786267</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.464509578404</v>
+        <v>466.9759386955264</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.7345634012098</v>
+        <v>422.4084105112709</v>
       </c>
       <c r="AD7" t="n">
-        <v>242986.2518503823</v>
+        <v>341295.7767786267</v>
       </c>
       <c r="AE7" t="n">
-        <v>332464.509578404</v>
+        <v>466975.9386955264</v>
       </c>
       <c r="AF7" t="n">
         <v>7.508682520129527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>300734.5634012098</v>
+        <v>422408.4105112709</v>
       </c>
     </row>
     <row r="8">
@@ -37699,28 +37699,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>243.0532777382857</v>
+        <v>341.3628026665301</v>
       </c>
       <c r="AB8" t="n">
-        <v>332.5562173552069</v>
+        <v>467.0676464723293</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.8175187165074</v>
+        <v>422.4913658265683</v>
       </c>
       <c r="AD8" t="n">
-        <v>243053.2777382857</v>
+        <v>341362.8026665301</v>
       </c>
       <c r="AE8" t="n">
-        <v>332556.2173552068</v>
+        <v>467067.6464723293</v>
       </c>
       <c r="AF8" t="n">
         <v>7.505202733995442e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>300817.5187165074</v>
+        <v>422491.3658265683</v>
       </c>
     </row>
   </sheetData>
